--- a/Alas自定义过滤器辅助表先行版.xlsx
+++ b/Alas自定义过滤器辅助表先行版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Tencent Files\2839299264\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AzurLaneCommissionSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEA0FC7-DAEE-48ED-B644-36633738EAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDE4819-009C-4FCC-84BF-FA5A4D55AC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="6" r:id="rId1"/>
@@ -1776,7 +1776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1943,6 +1943,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2037,13 +2041,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2180,11 +2177,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>DailyChip-1 &gt; DailyChip-2 &gt; NightDrill-6 &gt; Gem-8 &gt; NightDrill-8 &gt; Gem-4 &gt; NightDrill-7 &gt; ExtraDrill-2 &gt; Gem-2 &gt; ExtraDrill-5:20 &gt; ExtraDrill-3:20 &gt; ExtraDrill-0:20 &gt; ExtraDrill-1 &gt; ExtraCube-0:30 &gt; ExtraDrill-2:40 &gt; DailyResource-1 &gt; DailyResource-2 &gt; UrgentCube-1:30 &gt; UrgentCube-1:45 &gt; UrgentCube-3 &gt; UrgentCube-2:15 &gt; UrgentBox-6 &gt; UrgentBox-3 &gt; UrgentBox-1 &gt; UrgentCube-4 &gt; ExtraCube-1:30 &gt; ExtraCube-3 &gt; UrgentCube-6 &gt; ExtraOil-8 &gt; NightOil-8 &gt; UrgentDrill-1:30 &gt; ExtraOil-4 &gt; UrgentDrill-4 &gt; UrgentDrill-1 &gt; ExtraOil-1 &gt; UrgentDrill-2:40 &gt; shortest</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t> </a:t>
+            <a:t>DailyEvent &gt; DailyChip-1 &gt; DailyChip-2 &gt; NightDrill-6 &gt; Gem-8 &gt; NightDrill-8 &gt; Gem-4 &gt; NightDrill-7 &gt; ExtraDrill-2 &gt; Gem-2 &gt; ExtraDrill-5:20 &gt; ExtraDrill-3:20 &gt; ExtraDrill-0:20 &gt; ExtraDrill-1 &gt; ExtraCube-0:30 &gt; ExtraDrill-2:40 &gt; DailyResource-1 &gt; DailyResource-2 &gt; UrgentCube-1:30 &gt; UrgentCube-1:45 &gt; UrgentCube-3 &gt;  UrgentCube-2:15 &gt; UrgentBox-6 &gt; UrgentBox-3 &gt; UrgentBox-1 &gt; UrgentCube-4 &gt; ExtraCube-1:30 &gt; ExtraCube-3 &gt; UrgentCube-6 &gt; ExtraOil-8 &gt; NightOil-8 &gt; UrgentDrill-1:30 &gt;  ExtraOil-4 &gt; UrgentDrill-4 &gt; UrgentDrill-1 &gt; ExtraOil-1 &gt; UrgentDrill-2:40 &gt; shortest</a:t>
           </a:r>
           <a:endParaRPr/>
         </a:p>
@@ -2504,21 +2497,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="34" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="E2" s="41" t="s">
         <v>229</v>
       </c>
@@ -2527,9 +2520,9 @@
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="E3" s="41" t="s">
         <v>226</v>
       </c>
@@ -2538,11 +2531,11 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="E4" s="41" t="s">
         <v>225</v>
       </c>
@@ -2551,9 +2544,9 @@
       <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="E5" s="41" t="s">
         <v>227</v>
       </c>
@@ -2562,10 +2555,10 @@
       <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="34" t="s">
         <v>223</v>
       </c>
@@ -2639,25 +2632,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
@@ -2693,7 +2686,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="23">
         <v>1</v>
       </c>
@@ -2732,42 +2725,42 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -2805,7 +2798,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="19">
         <v>1</v>
       </c>
@@ -2847,22 +2840,22 @@
       <c r="A12" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>141</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -2900,7 +2893,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="19">
         <v>1</v>
       </c>
@@ -2942,22 +2935,22 @@
       <c r="A16" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>207</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -2995,7 +2988,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="19">
         <v>1</v>
       </c>
@@ -3036,22 +3029,22 @@
       <c r="A20" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="66" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -3089,7 +3082,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="27" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="31">
         <v>1</v>
       </c>
@@ -3180,7 +3173,7 @@
       <c r="F1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="71" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3208,7 +3201,7 @@
         <f>委托列表!S34</f>
         <v>1364.0961951219513</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -3234,7 +3227,7 @@
         <f>委托列表!S40</f>
         <v>1287.0121951219512</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -3260,7 +3253,7 @@
         <f>委托列表!S41</f>
         <v>1287.0121951219512</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -3286,7 +3279,7 @@
         <f>委托列表!S42</f>
         <v>1287.0121951219512</v>
       </c>
-      <c r="G5" s="71"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:7" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3312,7 +3305,7 @@
         <f>委托列表!S33</f>
         <v>1284.5121951219512</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -6706,7 +6699,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+      <selection activeCell="A5" sqref="A5:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6716,285 +6709,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="50" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="75" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="74" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
       <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="73" t="str">
+      <c r="A5" s="74" t="str">
         <f>IF(H2="不使用主要委托",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(附表!A35,"Major-10 &gt; ","")," 0 &gt;",""),"Major-9 &gt;",""),"Major-8 &gt;",""),SUBSTITUTE(附表!A35," 0 &gt;",""))</f>
-        <v>DailyChip-1 &gt; DailyChip-2 &gt; NightDrill-6 &gt; Gem-8 &gt; NightDrill-8 &gt; Gem-4 &gt; NightDrill-7 &gt; ExtraDrill-2 &gt; Gem-2 &gt; ExtraDrill-5:20 &gt; ExtraDrill-3:20 &gt; ExtraDrill-0:20 &gt; ExtraDrill-1 &gt; ExtraCube-0:30 &gt; ExtraDrill-2:40 &gt; DailyResource-1 &gt; DailyResource-2 &gt; UrgentCube-1:30 &gt; UrgentCube-1:45 &gt; UrgentCube-3 &gt;  UrgentCube-2:15 &gt; UrgentBox-6 &gt; UrgentBox-3 &gt; UrgentBox-1 &gt; UrgentCube-4 &gt; ExtraCube-1:30 &gt; ExtraCube-3 &gt; UrgentCube-6 &gt; ExtraOil-8 &gt; NightOil-8 &gt; UrgentDrill-1:30 &gt;  ExtraOil-4 &gt; UrgentDrill-4 &gt; UrgentDrill-1 &gt; ExtraOil-1 &gt; UrgentDrill-2:40 &gt; shortest</v>
-      </c>
-      <c r="B5" s="73" ph="1"/>
-      <c r="C5" s="73" ph="1"/>
-      <c r="D5" s="73" ph="1"/>
-      <c r="E5" s="73" ph="1"/>
-      <c r="F5" s="73" ph="1"/>
-      <c r="G5" s="73" ph="1"/>
-      <c r="H5" s="73" ph="1"/>
+        <v>DailyEvent &gt; DailyChip-1 &gt; DailyChip-2 &gt; NightDrill-6 &gt; Gem-8 &gt; NightDrill-8 &gt; Gem-4 &gt; NightDrill-7 &gt; ExtraDrill-2 &gt; Gem-2 &gt; ExtraDrill-5:20 &gt; ExtraDrill-3:20 &gt; ExtraDrill-0:20 &gt; ExtraDrill-1 &gt; ExtraCube-0:30 &gt; ExtraDrill-2:40 &gt; DailyResource-1 &gt; DailyResource-2 &gt; UrgentCube-1:30 &gt; UrgentCube-1:45 &gt; UrgentCube-3 &gt;  UrgentCube-2:15 &gt; UrgentBox-6 &gt; UrgentBox-3 &gt; UrgentBox-1 &gt; UrgentCube-4 &gt; ExtraCube-1:30 &gt; ExtraCube-3 &gt; UrgentCube-6 &gt; ExtraOil-8 &gt; NightOil-8 &gt; UrgentDrill-1:30 &gt;  ExtraOil-4 &gt; UrgentDrill-4 &gt; UrgentDrill-1 &gt; ExtraOil-1 &gt; UrgentDrill-2:40 &gt; shortest</v>
+      </c>
+      <c r="B5" s="74" ph="1"/>
+      <c r="C5" s="74" ph="1"/>
+      <c r="D5" s="74" ph="1"/>
+      <c r="E5" s="74" ph="1"/>
+      <c r="F5" s="74" ph="1"/>
+      <c r="G5" s="74" ph="1"/>
+      <c r="H5" s="74" ph="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" ph="1"/>
-      <c r="B6" s="73" ph="1"/>
-      <c r="C6" s="73" ph="1"/>
-      <c r="D6" s="73" ph="1"/>
-      <c r="E6" s="73" ph="1"/>
-      <c r="F6" s="73" ph="1"/>
-      <c r="G6" s="73" ph="1"/>
-      <c r="H6" s="73" ph="1"/>
+      <c r="A6" s="74" ph="1"/>
+      <c r="B6" s="74" ph="1"/>
+      <c r="C6" s="74" ph="1"/>
+      <c r="D6" s="74" ph="1"/>
+      <c r="E6" s="74" ph="1"/>
+      <c r="F6" s="74" ph="1"/>
+      <c r="G6" s="74" ph="1"/>
+      <c r="H6" s="74" ph="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" ph="1"/>
-      <c r="B7" s="73" ph="1"/>
-      <c r="C7" s="73" ph="1"/>
-      <c r="D7" s="73" ph="1"/>
-      <c r="E7" s="73" ph="1"/>
-      <c r="F7" s="73" ph="1"/>
-      <c r="G7" s="73" ph="1"/>
-      <c r="H7" s="73" ph="1"/>
+      <c r="A7" s="74" ph="1"/>
+      <c r="B7" s="74" ph="1"/>
+      <c r="C7" s="74" ph="1"/>
+      <c r="D7" s="74" ph="1"/>
+      <c r="E7" s="74" ph="1"/>
+      <c r="F7" s="74" ph="1"/>
+      <c r="G7" s="74" ph="1"/>
+      <c r="H7" s="74" ph="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" ph="1"/>
-      <c r="B8" s="73" ph="1"/>
-      <c r="C8" s="73" ph="1"/>
-      <c r="D8" s="73" ph="1"/>
-      <c r="E8" s="73" ph="1"/>
-      <c r="F8" s="73" ph="1"/>
-      <c r="G8" s="73" ph="1"/>
-      <c r="H8" s="73" ph="1"/>
+      <c r="A8" s="74" ph="1"/>
+      <c r="B8" s="74" ph="1"/>
+      <c r="C8" s="74" ph="1"/>
+      <c r="D8" s="74" ph="1"/>
+      <c r="E8" s="74" ph="1"/>
+      <c r="F8" s="74" ph="1"/>
+      <c r="G8" s="74" ph="1"/>
+      <c r="H8" s="74" ph="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="73" ph="1"/>
-      <c r="B9" s="73" ph="1"/>
-      <c r="C9" s="73" ph="1"/>
-      <c r="D9" s="73" ph="1"/>
-      <c r="E9" s="73" ph="1"/>
-      <c r="F9" s="73" ph="1"/>
-      <c r="G9" s="73" ph="1"/>
-      <c r="H9" s="73" ph="1"/>
+      <c r="A9" s="74" ph="1"/>
+      <c r="B9" s="74" ph="1"/>
+      <c r="C9" s="74" ph="1"/>
+      <c r="D9" s="74" ph="1"/>
+      <c r="E9" s="74" ph="1"/>
+      <c r="F9" s="74" ph="1"/>
+      <c r="G9" s="74" ph="1"/>
+      <c r="H9" s="74" ph="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="73" ph="1"/>
-      <c r="B10" s="73" ph="1"/>
-      <c r="C10" s="73" ph="1"/>
-      <c r="D10" s="73" ph="1"/>
-      <c r="E10" s="73" ph="1"/>
-      <c r="F10" s="73" ph="1"/>
-      <c r="G10" s="73" ph="1"/>
-      <c r="H10" s="73" ph="1"/>
+      <c r="A10" s="74" ph="1"/>
+      <c r="B10" s="74" ph="1"/>
+      <c r="C10" s="74" ph="1"/>
+      <c r="D10" s="74" ph="1"/>
+      <c r="E10" s="74" ph="1"/>
+      <c r="F10" s="74" ph="1"/>
+      <c r="G10" s="74" ph="1"/>
+      <c r="H10" s="74" ph="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="73" ph="1"/>
-      <c r="B11" s="73" ph="1"/>
-      <c r="C11" s="73" ph="1"/>
-      <c r="D11" s="73" ph="1"/>
-      <c r="E11" s="73" ph="1"/>
-      <c r="F11" s="73" ph="1"/>
-      <c r="G11" s="73" ph="1"/>
-      <c r="H11" s="73" ph="1"/>
+      <c r="A11" s="74" ph="1"/>
+      <c r="B11" s="74" ph="1"/>
+      <c r="C11" s="74" ph="1"/>
+      <c r="D11" s="74" ph="1"/>
+      <c r="E11" s="74" ph="1"/>
+      <c r="F11" s="74" ph="1"/>
+      <c r="G11" s="74" ph="1"/>
+      <c r="H11" s="74" ph="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A12" s="73" ph="1"/>
-      <c r="B12" s="73" ph="1"/>
-      <c r="C12" s="73" ph="1"/>
-      <c r="D12" s="73" ph="1"/>
-      <c r="E12" s="73" ph="1"/>
-      <c r="F12" s="73" ph="1"/>
-      <c r="G12" s="73" ph="1"/>
-      <c r="H12" s="73" ph="1"/>
+      <c r="A12" s="74" ph="1"/>
+      <c r="B12" s="74" ph="1"/>
+      <c r="C12" s="74" ph="1"/>
+      <c r="D12" s="74" ph="1"/>
+      <c r="E12" s="74" ph="1"/>
+      <c r="F12" s="74" ph="1"/>
+      <c r="G12" s="74" ph="1"/>
+      <c r="H12" s="74" ph="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A13" s="73" ph="1"/>
-      <c r="B13" s="73" ph="1"/>
-      <c r="C13" s="73" ph="1"/>
-      <c r="D13" s="73" ph="1"/>
-      <c r="E13" s="73" ph="1"/>
-      <c r="F13" s="73" ph="1"/>
-      <c r="G13" s="73" ph="1"/>
-      <c r="H13" s="73" ph="1"/>
+      <c r="A13" s="74" ph="1"/>
+      <c r="B13" s="74" ph="1"/>
+      <c r="C13" s="74" ph="1"/>
+      <c r="D13" s="74" ph="1"/>
+      <c r="E13" s="74" ph="1"/>
+      <c r="F13" s="74" ph="1"/>
+      <c r="G13" s="74" ph="1"/>
+      <c r="H13" s="74" ph="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A14" s="73" ph="1"/>
-      <c r="B14" s="73" ph="1"/>
-      <c r="C14" s="73" ph="1"/>
-      <c r="D14" s="73" ph="1"/>
-      <c r="E14" s="73" ph="1"/>
-      <c r="F14" s="73" ph="1"/>
-      <c r="G14" s="73" ph="1"/>
-      <c r="H14" s="73" ph="1"/>
+      <c r="A14" s="74" ph="1"/>
+      <c r="B14" s="74" ph="1"/>
+      <c r="C14" s="74" ph="1"/>
+      <c r="D14" s="74" ph="1"/>
+      <c r="E14" s="74" ph="1"/>
+      <c r="F14" s="74" ph="1"/>
+      <c r="G14" s="74" ph="1"/>
+      <c r="H14" s="74" ph="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A15" s="73" ph="1"/>
-      <c r="B15" s="73" ph="1"/>
-      <c r="C15" s="73" ph="1"/>
-      <c r="D15" s="73" ph="1"/>
-      <c r="E15" s="73" ph="1"/>
-      <c r="F15" s="73" ph="1"/>
-      <c r="G15" s="73" ph="1"/>
-      <c r="H15" s="73" ph="1"/>
+      <c r="A15" s="74" ph="1"/>
+      <c r="B15" s="74" ph="1"/>
+      <c r="C15" s="74" ph="1"/>
+      <c r="D15" s="74" ph="1"/>
+      <c r="E15" s="74" ph="1"/>
+      <c r="F15" s="74" ph="1"/>
+      <c r="G15" s="74" ph="1"/>
+      <c r="H15" s="74" ph="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" s="73" ph="1"/>
-      <c r="B16" s="73" ph="1"/>
-      <c r="C16" s="73" ph="1"/>
-      <c r="D16" s="73" ph="1"/>
-      <c r="E16" s="73" ph="1"/>
-      <c r="F16" s="73" ph="1"/>
-      <c r="G16" s="73" ph="1"/>
-      <c r="H16" s="73" ph="1"/>
+      <c r="A16" s="74" ph="1"/>
+      <c r="B16" s="74" ph="1"/>
+      <c r="C16" s="74" ph="1"/>
+      <c r="D16" s="74" ph="1"/>
+      <c r="E16" s="74" ph="1"/>
+      <c r="F16" s="74" ph="1"/>
+      <c r="G16" s="74" ph="1"/>
+      <c r="H16" s="74" ph="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="73" ph="1"/>
-      <c r="B17" s="73" ph="1"/>
-      <c r="C17" s="73" ph="1"/>
-      <c r="D17" s="73" ph="1"/>
-      <c r="E17" s="73" ph="1"/>
-      <c r="F17" s="73" ph="1"/>
-      <c r="G17" s="73" ph="1"/>
-      <c r="H17" s="73" ph="1"/>
+      <c r="A17" s="74" ph="1"/>
+      <c r="B17" s="74" ph="1"/>
+      <c r="C17" s="74" ph="1"/>
+      <c r="D17" s="74" ph="1"/>
+      <c r="E17" s="74" ph="1"/>
+      <c r="F17" s="74" ph="1"/>
+      <c r="G17" s="74" ph="1"/>
+      <c r="H17" s="74" ph="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="73" ph="1"/>
-      <c r="B18" s="73" ph="1"/>
-      <c r="C18" s="73" ph="1"/>
-      <c r="D18" s="73" ph="1"/>
-      <c r="E18" s="73" ph="1"/>
-      <c r="F18" s="73" ph="1"/>
-      <c r="G18" s="73" ph="1"/>
-      <c r="H18" s="73" ph="1"/>
+      <c r="A18" s="74" ph="1"/>
+      <c r="B18" s="74" ph="1"/>
+      <c r="C18" s="74" ph="1"/>
+      <c r="D18" s="74" ph="1"/>
+      <c r="E18" s="74" ph="1"/>
+      <c r="F18" s="74" ph="1"/>
+      <c r="G18" s="74" ph="1"/>
+      <c r="H18" s="74" ph="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="73" ph="1"/>
-      <c r="B19" s="73" ph="1"/>
-      <c r="C19" s="73" ph="1"/>
-      <c r="D19" s="73" ph="1"/>
-      <c r="E19" s="73" ph="1"/>
-      <c r="F19" s="73" ph="1"/>
-      <c r="G19" s="73" ph="1"/>
-      <c r="H19" s="73" ph="1"/>
+      <c r="A19" s="74" ph="1"/>
+      <c r="B19" s="74" ph="1"/>
+      <c r="C19" s="74" ph="1"/>
+      <c r="D19" s="74" ph="1"/>
+      <c r="E19" s="74" ph="1"/>
+      <c r="F19" s="74" ph="1"/>
+      <c r="G19" s="74" ph="1"/>
+      <c r="H19" s="74" ph="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="73" ph="1"/>
-      <c r="B20" s="73" ph="1"/>
-      <c r="C20" s="73" ph="1"/>
-      <c r="D20" s="73" ph="1"/>
-      <c r="E20" s="73" ph="1"/>
-      <c r="F20" s="73" ph="1"/>
-      <c r="G20" s="73" ph="1"/>
-      <c r="H20" s="73" ph="1"/>
+      <c r="A20" s="74" ph="1"/>
+      <c r="B20" s="74" ph="1"/>
+      <c r="C20" s="74" ph="1"/>
+      <c r="D20" s="74" ph="1"/>
+      <c r="E20" s="74" ph="1"/>
+      <c r="F20" s="74" ph="1"/>
+      <c r="G20" s="74" ph="1"/>
+      <c r="H20" s="74" ph="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" ph="1"/>
-      <c r="B21" s="73" ph="1"/>
-      <c r="C21" s="73" ph="1"/>
-      <c r="D21" s="73" ph="1"/>
-      <c r="E21" s="73" ph="1"/>
-      <c r="F21" s="73" ph="1"/>
-      <c r="G21" s="73" ph="1"/>
-      <c r="H21" s="73" ph="1"/>
+      <c r="A21" s="74" ph="1"/>
+      <c r="B21" s="74" ph="1"/>
+      <c r="C21" s="74" ph="1"/>
+      <c r="D21" s="74" ph="1"/>
+      <c r="E21" s="74" ph="1"/>
+      <c r="F21" s="74" ph="1"/>
+      <c r="G21" s="74" ph="1"/>
+      <c r="H21" s="74" ph="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="73" ph="1"/>
-      <c r="B22" s="73" ph="1"/>
-      <c r="C22" s="73" ph="1"/>
-      <c r="D22" s="73" ph="1"/>
-      <c r="E22" s="73" ph="1"/>
-      <c r="F22" s="73" ph="1"/>
-      <c r="G22" s="73" ph="1"/>
-      <c r="H22" s="73" ph="1"/>
+      <c r="A22" s="74" ph="1"/>
+      <c r="B22" s="74" ph="1"/>
+      <c r="C22" s="74" ph="1"/>
+      <c r="D22" s="74" ph="1"/>
+      <c r="E22" s="74" ph="1"/>
+      <c r="F22" s="74" ph="1"/>
+      <c r="G22" s="74" ph="1"/>
+      <c r="H22" s="74" ph="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7054,7 +7047,7 @@
       <c r="C1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="50" t="s">
         <v>242</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -7150,15 +7143,15 @@
         <f t="shared" ref="S3:S42" si="0">R3/C3</f>
         <v>73.586525759577285</v>
       </c>
-      <c r="U3" s="77" t="s">
+      <c r="U3" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
     </row>
     <row r="4" spans="1:27" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="46" t="s">
@@ -7196,13 +7189,13 @@
         <f t="shared" si="0"/>
         <v>153.17052575957729</v>
       </c>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="46" t="s">
@@ -7240,13 +7233,13 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="46" t="s">
@@ -7284,13 +7277,13 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="46" t="s">
@@ -7328,13 +7321,13 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="46" t="s">
@@ -7372,13 +7365,13 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="46" t="s">
@@ -7416,13 +7409,13 @@
         <f t="shared" si="0"/>
         <v>116.20877675033026</v>
       </c>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="46" t="s">
@@ -7497,15 +7490,15 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U11" s="78" t="s">
+      <c r="U11" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
@@ -7543,13 +7536,13 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
@@ -7587,13 +7580,13 @@
         <f t="shared" si="0"/>
         <v>84.907529722589175</v>
       </c>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
@@ -7631,13 +7624,13 @@
         <f t="shared" si="0"/>
         <v>164.49152972258918</v>
       </c>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
@@ -7675,13 +7668,13 @@
         <f t="shared" si="0"/>
         <v>84.907529722589175</v>
       </c>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="46" t="s">
@@ -9698,7 +9691,6 @@
       <c r="A74" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="B74" s="81"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
@@ -12104,441 +12096,441 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4BD6DA-992E-4772-BE16-1A74CC9F4951}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="str">
-        <f>委托建议!B2&amp;" &gt; "&amp;委托建议!B3&amp;" &gt; "&amp;委托建议!B4&amp;" &gt; "&amp;委托建议!B5&amp;" &gt; "&amp;委托建议!B6&amp;" &gt; "&amp;委托建议!B7&amp;" &gt; "&amp;委托建议!B8&amp;" &gt; "&amp;委托建议!B9&amp;" &gt; "&amp;委托建议!B10&amp;" &gt; "&amp;委托建议!B11&amp;" &gt; "&amp;委托建议!B12&amp;" &gt; "&amp;委托建议!B13&amp;" &gt; "&amp;委托建议!B14&amp;" &gt; "&amp;委托建议!B15&amp;" &gt; "&amp;委托建议!B16&amp;" &gt; "&amp;委托建议!B17&amp;" &gt; "&amp;委托建议!B18&amp;" &gt; "&amp;委托建议!B19&amp;" &gt; "&amp;委托建议!B20&amp;" &gt; "&amp;委托建议!B21&amp;" &gt; "&amp;委托建议!B22&amp;" &gt; "&amp;委托建议!B23&amp;" &gt; "&amp;委托建议!B24&amp;" &gt; "&amp;委托建议!B25&amp;" &gt; "&amp;委托建议!B26&amp;" &gt; "&amp;委托建议!B27&amp;" &gt; "&amp;委托建议!B28&amp;" &gt; "&amp;委托建议!B29&amp;" &gt; "&amp;委托建议!B30&amp;" &gt; "&amp;委托建议!B31&amp;" &gt; "&amp;委托建议!B32&amp;" &gt; "&amp;委托建议!B33&amp;" &gt; "&amp;委托建议!B34&amp;" &gt; "&amp;委托建议!B35&amp;" &gt; "&amp;委托建议!B36&amp;" &gt; "&amp;委托建议!B37&amp;" &gt; "&amp;委托建议!B38&amp;" &gt; "&amp;委托建议!B39&amp;" &gt; "&amp;委托建议!B40&amp;" &gt; "&amp;委托建议!B41&amp;" &gt; "&amp;委托建议!B42&amp;" &gt; "&amp;委托建议!B43&amp;" &gt; "&amp;委托建议!B44&amp;" &gt; "&amp;委托建议!B45&amp;" &gt; "&amp;委托建议!B46&amp;" &gt; "&amp;委托建议!B47&amp;" &gt; "&amp;委托建议!B48&amp;" &gt; "&amp;委托建议!B49&amp;" &gt; "&amp;委托建议!B50&amp;" &gt; "&amp;委托建议!B51&amp;" &gt; "&amp;委托建议!B52&amp;" &gt; "&amp;委托建议!B53&amp;" &gt; "&amp;委托建议!B54&amp;" &gt; "&amp;委托建议!B55&amp;" &gt; "&amp;委托建议!B56&amp;" &gt; "&amp;委托建议!B57&amp;" &gt; "&amp;委托建议!B58&amp;" &gt; "&amp;委托建议!B59&amp;" &gt; "&amp;委托建议!B60&amp;" &gt; "&amp;委托建议!B61&amp;" &gt; "&amp;委托建议!B62&amp;" &gt; "&amp;委托建议!B63&amp;" &gt; "&amp;委托建议!B64&amp;" &gt; "&amp;委托建议!B65&amp;" &gt; "&amp;委托建议!B66&amp;" &gt; "&amp;委托建议!B67&amp;" &gt; "&amp;委托建议!B68&amp;" &gt; "&amp;委托建议!B69&amp;" &gt; "&amp;委托建议!B70&amp;" &gt; "&amp;委托建议!B71&amp;" &gt; "&amp;委托建议!B72&amp;" &gt; "&amp;委托建议!B73&amp;" &gt; "&amp;委托建议!B74&amp;" &gt; "&amp;委托建议!B75&amp;" &gt; "&amp;委托建议!B76&amp;" &gt; "&amp;委托建议!B77&amp;" &gt; "&amp;委托建议!B78&amp;" &gt; "&amp;委托建议!B79&amp;" &gt; "&amp;委托建议!B80&amp;" &gt; "&amp;委托建议!B81&amp;" &gt; "&amp;委托建议!B82&amp;" &gt; "&amp;委托建议!B83&amp;" &gt; "&amp;委托建议!B84&amp;" &gt; "&amp;"shortest"</f>
-        <v>DailyChip-1 &gt; * &gt; * &gt; DailyChip-2 &gt; * &gt; * &gt; * &gt; * &gt; * &gt; * &gt; NightDrill-6 &gt; * &gt; Gem-8 &gt; NightDrill-8 &gt; * &gt; Gem-4 &gt; NightDrill-7 &gt; ExtraDrill-2 &gt; * &gt; Gem-2 &gt; ExtraDrill-5:20 &gt; ExtraDrill-3:20 &gt; ExtraDrill-0:20 &gt; ExtraDrill-1 &gt; ExtraCube-0:30 &gt; ExtraDrill-2:40 &gt; DailyResource-1 &gt; * &gt; * &gt; DailyResource-2 &gt; * &gt; * &gt; UrgentCube-1:30 &gt; * &gt; * &gt; * &gt; * &gt; * &gt; * &gt; * &gt; * &gt; UrgentCube-1:45 &gt; * &gt; * &gt; * &gt; * &gt; Major-10 &gt; * &gt; * &gt; * &gt; * &gt; UrgentCube-3 &gt; * &gt; * &gt; * &gt; * &gt; Major-8 &gt; * &gt; * &gt; * &gt; * &gt; UrgentCube-2:15 &gt; * &gt; UrgentBox-6 &gt; * &gt; UrgentBox-3 &gt; * &gt; UrgentBox-1 &gt; UrgentCube-4 &gt; ExtraCube-1:30 &gt; ExtraCube-3 &gt; UrgentCube-6 &gt; ExtraOil-8 &gt; NightOil-8 &gt; UrgentDrill-1:30 &gt; Major-9 &gt; ExtraOil-4 &gt; UrgentDrill-4 &gt; UrgentDrill-1 &gt; * &gt; ExtraOil-1 &gt; * &gt; UrgentDrill-2:40 &gt; shortest</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="A1" s="74" t="str">
+        <f>"DailyEvent &gt; "&amp;委托建议!B2&amp;" &gt; "&amp;委托建议!B3&amp;" &gt; "&amp;委托建议!B4&amp;" &gt; "&amp;委托建议!B5&amp;" &gt; "&amp;委托建议!B6&amp;" &gt; "&amp;委托建议!B7&amp;" &gt; "&amp;委托建议!B8&amp;" &gt; "&amp;委托建议!B9&amp;" &gt; "&amp;委托建议!B10&amp;" &gt; "&amp;委托建议!B11&amp;" &gt; "&amp;委托建议!B12&amp;" &gt; "&amp;委托建议!B13&amp;" &gt; "&amp;委托建议!B14&amp;" &gt; "&amp;委托建议!B15&amp;" &gt; "&amp;委托建议!B16&amp;" &gt; "&amp;委托建议!B17&amp;" &gt; "&amp;委托建议!B18&amp;" &gt; "&amp;委托建议!B19&amp;" &gt; "&amp;委托建议!B20&amp;" &gt; "&amp;委托建议!B21&amp;" &gt; "&amp;委托建议!B22&amp;" &gt; "&amp;委托建议!B23&amp;" &gt; "&amp;委托建议!B24&amp;" &gt; "&amp;委托建议!B25&amp;" &gt; "&amp;委托建议!B26&amp;" &gt; "&amp;委托建议!B27&amp;" &gt; "&amp;委托建议!B28&amp;" &gt; "&amp;委托建议!B29&amp;" &gt; "&amp;委托建议!B30&amp;" &gt; "&amp;委托建议!B31&amp;" &gt; "&amp;委托建议!B32&amp;" &gt; "&amp;委托建议!B33&amp;" &gt; "&amp;委托建议!B34&amp;" &gt; "&amp;委托建议!B35&amp;" &gt; "&amp;委托建议!B36&amp;" &gt; "&amp;委托建议!B37&amp;" &gt; "&amp;委托建议!B38&amp;" &gt; "&amp;委托建议!B39&amp;" &gt; "&amp;委托建议!B40&amp;" &gt; "&amp;委托建议!B41&amp;" &gt; "&amp;委托建议!B42&amp;" &gt; "&amp;委托建议!B43&amp;" &gt; "&amp;委托建议!B44&amp;" &gt; "&amp;委托建议!B45&amp;" &gt; "&amp;委托建议!B46&amp;" &gt; "&amp;委托建议!B47&amp;" &gt; "&amp;委托建议!B48&amp;" &gt; "&amp;委托建议!B49&amp;" &gt; "&amp;委托建议!B50&amp;" &gt; "&amp;委托建议!B51&amp;" &gt; "&amp;委托建议!B52&amp;" &gt; "&amp;委托建议!B53&amp;" &gt; "&amp;委托建议!B54&amp;" &gt; "&amp;委托建议!B55&amp;" &gt; "&amp;委托建议!B56&amp;" &gt; "&amp;委托建议!B57&amp;" &gt; "&amp;委托建议!B58&amp;" &gt; "&amp;委托建议!B59&amp;" &gt; "&amp;委托建议!B60&amp;" &gt; "&amp;委托建议!B61&amp;" &gt; "&amp;委托建议!B62&amp;" &gt; "&amp;委托建议!B63&amp;" &gt; "&amp;委托建议!B64&amp;" &gt; "&amp;委托建议!B65&amp;" &gt; "&amp;委托建议!B66&amp;" &gt; "&amp;委托建议!B67&amp;" &gt; "&amp;委托建议!B68&amp;" &gt; "&amp;委托建议!B69&amp;" &gt; "&amp;委托建议!B70&amp;" &gt; "&amp;委托建议!B71&amp;" &gt; "&amp;委托建议!B72&amp;" &gt; "&amp;委托建议!B73&amp;" &gt; "&amp;委托建议!B74&amp;" &gt; "&amp;委托建议!B75&amp;" &gt; "&amp;委托建议!B76&amp;" &gt; "&amp;委托建议!B77&amp;" &gt; "&amp;委托建议!B78&amp;" &gt; "&amp;委托建议!B79&amp;" &gt; "&amp;委托建议!B80&amp;" &gt; "&amp;委托建议!B81&amp;" &gt; "&amp;委托建议!B82&amp;" &gt; "&amp;委托建议!B83&amp;" &gt; "&amp;委托建议!B84&amp;" &gt; "&amp;"shortest"</f>
+        <v>DailyEvent &gt; DailyChip-1 &gt; * &gt; * &gt; DailyChip-2 &gt; * &gt; * &gt; * &gt; * &gt; * &gt; * &gt; NightDrill-6 &gt; * &gt; Gem-8 &gt; NightDrill-8 &gt; * &gt; Gem-4 &gt; NightDrill-7 &gt; ExtraDrill-2 &gt; * &gt; Gem-2 &gt; ExtraDrill-5:20 &gt; ExtraDrill-3:20 &gt; ExtraDrill-0:20 &gt; ExtraDrill-1 &gt; ExtraCube-0:30 &gt; ExtraDrill-2:40 &gt; DailyResource-1 &gt; * &gt; * &gt; DailyResource-2 &gt; * &gt; * &gt; UrgentCube-1:30 &gt; * &gt; * &gt; * &gt; * &gt; * &gt; * &gt; * &gt; * &gt; UrgentCube-1:45 &gt; * &gt; * &gt; * &gt; * &gt; Major-10 &gt; * &gt; * &gt; * &gt; * &gt; UrgentCube-3 &gt; * &gt; * &gt; * &gt; * &gt; Major-8 &gt; * &gt; * &gt; * &gt; * &gt; UrgentCube-2:15 &gt; * &gt; UrgentBox-6 &gt; * &gt; UrgentBox-3 &gt; * &gt; UrgentBox-1 &gt; UrgentCube-4 &gt; ExtraCube-1:30 &gt; ExtraCube-3 &gt; UrgentCube-6 &gt; ExtraOil-8 &gt; NightOil-8 &gt; UrgentDrill-1:30 &gt; Major-9 &gt; ExtraOil-4 &gt; UrgentDrill-4 &gt; UrgentDrill-1 &gt; * &gt; ExtraOil-1 &gt; * &gt; UrgentDrill-2:40 &gt; shortest</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="G1" s="34" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="G2" s="34" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
     </row>
     <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73" t="str">
+      <c r="A35" s="74" t="str">
         <f>SUBSTITUTE(A1,"* &gt; ","")</f>
-        <v>DailyChip-1 &gt; DailyChip-2 &gt; NightDrill-6 &gt; Gem-8 &gt; NightDrill-8 &gt; Gem-4 &gt; NightDrill-7 &gt; ExtraDrill-2 &gt; Gem-2 &gt; ExtraDrill-5:20 &gt; ExtraDrill-3:20 &gt; ExtraDrill-0:20 &gt; ExtraDrill-1 &gt; ExtraCube-0:30 &gt; ExtraDrill-2:40 &gt; DailyResource-1 &gt; DailyResource-2 &gt; UrgentCube-1:30 &gt; UrgentCube-1:45 &gt; Major-10 &gt; UrgentCube-3 &gt; Major-8 &gt; UrgentCube-2:15 &gt; UrgentBox-6 &gt; UrgentBox-3 &gt; UrgentBox-1 &gt; UrgentCube-4 &gt; ExtraCube-1:30 &gt; ExtraCube-3 &gt; UrgentCube-6 &gt; ExtraOil-8 &gt; NightOil-8 &gt; UrgentDrill-1:30 &gt; Major-9 &gt; ExtraOil-4 &gt; UrgentDrill-4 &gt; UrgentDrill-1 &gt; ExtraOil-1 &gt; UrgentDrill-2:40 &gt; shortest</v>
-      </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
+        <v>DailyEvent &gt; DailyChip-1 &gt; DailyChip-2 &gt; NightDrill-6 &gt; Gem-8 &gt; NightDrill-8 &gt; Gem-4 &gt; NightDrill-7 &gt; ExtraDrill-2 &gt; Gem-2 &gt; ExtraDrill-5:20 &gt; ExtraDrill-3:20 &gt; ExtraDrill-0:20 &gt; ExtraDrill-1 &gt; ExtraCube-0:30 &gt; ExtraDrill-2:40 &gt; DailyResource-1 &gt; DailyResource-2 &gt; UrgentCube-1:30 &gt; UrgentCube-1:45 &gt; Major-10 &gt; UrgentCube-3 &gt; Major-8 &gt; UrgentCube-2:15 &gt; UrgentBox-6 &gt; UrgentBox-3 &gt; UrgentBox-1 &gt; UrgentCube-4 &gt; ExtraCube-1:30 &gt; ExtraCube-3 &gt; UrgentCube-6 &gt; ExtraOil-8 &gt; NightOil-8 &gt; UrgentDrill-1:30 &gt; Major-9 &gt; ExtraOil-4 &gt; UrgentDrill-4 &gt; UrgentDrill-1 &gt; ExtraOil-1 &gt; UrgentDrill-2:40 &gt; shortest</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Alas自定义过滤器辅助表先行版.xlsx
+++ b/Alas自定义过滤器辅助表先行版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AzurLaneCommissionSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDE4819-009C-4FCC-84BF-FA5A4D55AC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A7648-CD54-41A1-AC4F-12CB58CA73AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="250">
   <si>
     <t>名称</t>
   </si>
@@ -832,10 +832,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>不使用主要委托</t>
   </si>
   <si>
@@ -851,10 +847,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>数据说明：认为日常大成功概率为0.3，紧急大成功概率为0.33，教材的稀有度权重为1:3:8，改造图的权重为1:2:4，装备箱的权重为1:5:25:125，装备部件的权重为1:2:4.单次产出量以期望为主，Alas统计数据为辅</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyResource-2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -896,6 +888,22 @@
   </si>
   <si>
     <t>Major-10</t>
+  </si>
+  <si>
+    <t>数据说明：认为日常大成功概率为0.3，紧急大成功概率为0.33，教材的稀有度权重为1:3:8，改造图的权重为1:2:4，装备箱的权重为1:5:25:125，装备部件的权重为1:2:4.单次产出量以期望为主，Alas统计数据为辅。由于夜间油田和演习委托没有数据，故仅作为参考。主要委托没有足够数据，认为概率相同。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.1 :</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充了掉落概率和消失时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -905,7 +913,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1089,13 +1097,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="28"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1776,7 +1791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,7 +1927,7 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1936,10 +1951,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1992,7 +2007,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2033,13 +2048,16 @@
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2485,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADAA8C5-079F-4EF8-967A-91D6FF59CA51}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2503,7 +2521,7 @@
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
       <c r="D1" s="34" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2565,7 +2583,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -2599,7 +2617,17 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2661,7 @@
     <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>14</v>
@@ -6746,7 +6774,7 @@
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" s="72"/>
       <c r="J2" s="76" t="s">
@@ -7021,7 +7049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA145"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U3" sqref="U3:AA9"/>
     </sheetView>
@@ -7048,7 +7076,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>71</v>
@@ -7087,7 +7115,7 @@
         <v>72</v>
       </c>
       <c r="Q1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>13</v>
@@ -7109,7 +7137,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>15</v>
@@ -7133,7 +7161,7 @@
         <v>0.3</v>
       </c>
       <c r="Q3">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R3">
         <f>$F3-$E3+$G3*用户配置文件!$C$4+$H3*用户配置文件!$D$4+$I3*用户配置文件!$E$4+$J3*用户配置文件!$F$4+$K3*用户配置文件!$G$4+$L3*用户配置文件!$H$4+$M3*用户配置文件!$I$4+$N3*用户配置文件!$J$4+$O3*用户配置文件!$K$4+$P3*用户配置文件!$L$4</f>
@@ -7143,19 +7171,19 @@
         <f t="shared" ref="S3:S42" si="0">R3/C3</f>
         <v>73.586525759577285</v>
       </c>
-      <c r="U3" s="78" t="s">
+      <c r="U3" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
     </row>
     <row r="4" spans="1:27" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>15</v>
@@ -7179,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R4">
         <f>$F4-$E4+$G4*用户配置文件!$C$4+$H4*用户配置文件!$D$4+$I4*用户配置文件!$E$4+$J4*用户配置文件!$F$4+$K4*用户配置文件!$G$4+$L4*用户配置文件!$H$4+$M4*用户配置文件!$I$4+$N4*用户配置文件!$J$4+$O4*用户配置文件!$K$4+$P4*用户配置文件!$L$4</f>
@@ -7189,17 +7217,17 @@
         <f t="shared" si="0"/>
         <v>153.17052575957729</v>
       </c>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>15</v>
@@ -7223,7 +7251,7 @@
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R5">
         <f>$F5-$E5+$G5*用户配置文件!$C$4+$H5*用户配置文件!$D$4+$I5*用户配置文件!$E$4+$J5*用户配置文件!$F$4+$K5*用户配置文件!$G$4+$L5*用户配置文件!$H$4+$M5*用户配置文件!$I$4+$N5*用户配置文件!$J$4+$O5*用户配置文件!$K$4+$P5*用户配置文件!$L$4</f>
@@ -7233,17 +7261,17 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>15</v>
@@ -7267,7 +7295,7 @@
         <v>0.3</v>
       </c>
       <c r="Q6">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R6">
         <f>$F6-$E6+$G6*用户配置文件!$C$4+$H6*用户配置文件!$D$4+$I6*用户配置文件!$E$4+$J6*用户配置文件!$F$4+$K6*用户配置文件!$G$4+$L6*用户配置文件!$H$4+$M6*用户配置文件!$I$4+$N6*用户配置文件!$J$4+$O6*用户配置文件!$K$4+$P6*用户配置文件!$L$4</f>
@@ -7277,17 +7305,17 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>15</v>
@@ -7311,7 +7339,7 @@
         <v>7.5</v>
       </c>
       <c r="Q7">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R7">
         <f>$F7-$E7+$G7*用户配置文件!$C$4+$H7*用户配置文件!$D$4+$I7*用户配置文件!$E$4+$J7*用户配置文件!$F$4+$K7*用户配置文件!$G$4+$L7*用户配置文件!$H$4+$M7*用户配置文件!$I$4+$N7*用户配置文件!$J$4+$O7*用户配置文件!$K$4+$P7*用户配置文件!$L$4</f>
@@ -7321,17 +7349,17 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
@@ -7355,7 +7383,7 @@
         <v>0.3</v>
       </c>
       <c r="Q8">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R8">
         <f>$F8-$E8+$G8*用户配置文件!$C$4+$H8*用户配置文件!$D$4+$I8*用户配置文件!$E$4+$J8*用户配置文件!$F$4+$K8*用户配置文件!$G$4+$L8*用户配置文件!$H$4+$M8*用户配置文件!$I$4+$N8*用户配置文件!$J$4+$O8*用户配置文件!$K$4+$P8*用户配置文件!$L$4</f>
@@ -7365,17 +7393,17 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>17</v>
@@ -7399,7 +7427,7 @@
         <v>5.5</v>
       </c>
       <c r="Q9">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R9">
         <f>$F9-$E9+$G9*用户配置文件!$C$4+$H9*用户配置文件!$D$4+$I9*用户配置文件!$E$4+$J9*用户配置文件!$F$4+$K9*用户配置文件!$G$4+$L9*用户配置文件!$H$4+$M9*用户配置文件!$I$4+$N9*用户配置文件!$J$4+$O9*用户配置文件!$K$4+$P9*用户配置文件!$L$4</f>
@@ -7409,17 +7437,17 @@
         <f t="shared" si="0"/>
         <v>116.20877675033026</v>
       </c>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>17</v>
@@ -7443,7 +7471,7 @@
         <v>5.5</v>
       </c>
       <c r="Q10">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R10">
         <f>$F10-$E10+$G10*用户配置文件!$C$4+$H10*用户配置文件!$D$4+$I10*用户配置文件!$E$4+$J10*用户配置文件!$F$4+$K10*用户配置文件!$G$4+$L10*用户配置文件!$H$4+$M10*用户配置文件!$I$4+$N10*用户配置文件!$J$4+$O10*用户配置文件!$K$4+$P10*用户配置文件!$L$4</f>
@@ -7456,7 +7484,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>17</v>
@@ -7480,7 +7508,7 @@
         <v>0.3</v>
       </c>
       <c r="Q11">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R11">
         <f>$F11-$E11+$G11*用户配置文件!$C$4+$H11*用户配置文件!$D$4+$I11*用户配置文件!$E$4+$J11*用户配置文件!$F$4+$K11*用户配置文件!$G$4+$L11*用户配置文件!$H$4+$M11*用户配置文件!$I$4+$N11*用户配置文件!$J$4+$O11*用户配置文件!$K$4+$P11*用户配置文件!$L$4</f>
@@ -7490,19 +7518,19 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U11" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
+      <c r="U11" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
@@ -7526,7 +7554,7 @@
         <v>7.5</v>
       </c>
       <c r="Q12">
-        <v>2.5000000000000001E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="R12">
         <f>$F12-$E12+$G12*用户配置文件!$C$4+$H12*用户配置文件!$D$4+$I12*用户配置文件!$E$4+$J12*用户配置文件!$F$4+$K12*用户配置文件!$G$4+$L12*用户配置文件!$H$4+$M12*用户配置文件!$I$4+$N12*用户配置文件!$J$4+$O12*用户配置文件!$K$4+$P12*用户配置文件!$L$4</f>
@@ -7536,17 +7564,17 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>18</v>
@@ -7570,7 +7598,7 @@
         <v>0.3</v>
       </c>
       <c r="Q13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R13">
         <f>$F13-$E13+$G13*用户配置文件!$C$4+$H13*用户配置文件!$D$4+$I13*用户配置文件!$E$4+$J13*用户配置文件!$F$4+$K13*用户配置文件!$G$4+$L13*用户配置文件!$H$4+$M13*用户配置文件!$I$4+$N13*用户配置文件!$J$4+$O13*用户配置文件!$K$4+$P13*用户配置文件!$L$4</f>
@@ -7580,17 +7608,17 @@
         <f t="shared" si="0"/>
         <v>84.907529722589175</v>
       </c>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>19</v>
@@ -7614,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="Q14">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R14">
         <f>$F14-$E14+$G14*用户配置文件!$C$4+$H14*用户配置文件!$D$4+$I14*用户配置文件!$E$4+$J14*用户配置文件!$F$4+$K14*用户配置文件!$G$4+$L14*用户配置文件!$H$4+$M14*用户配置文件!$I$4+$N14*用户配置文件!$J$4+$O14*用户配置文件!$K$4+$P14*用户配置文件!$L$4</f>
@@ -7624,17 +7652,17 @@
         <f t="shared" si="0"/>
         <v>164.49152972258918</v>
       </c>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>20</v>
@@ -7658,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="Q15">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R15">
         <f>$F15-$E15+$G15*用户配置文件!$C$4+$H15*用户配置文件!$D$4+$I15*用户配置文件!$E$4+$J15*用户配置文件!$F$4+$K15*用户配置文件!$G$4+$L15*用户配置文件!$H$4+$M15*用户配置文件!$I$4+$N15*用户配置文件!$J$4+$O15*用户配置文件!$K$4+$P15*用户配置文件!$L$4</f>
@@ -7668,17 +7696,17 @@
         <f t="shared" si="0"/>
         <v>84.907529722589175</v>
       </c>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
@@ -7702,7 +7730,7 @@
         <v>0.3</v>
       </c>
       <c r="Q16">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R16">
         <f>$F16-$E16+$G16*用户配置文件!$C$4+$H16*用户配置文件!$D$4+$I16*用户配置文件!$E$4+$J16*用户配置文件!$F$4+$K16*用户配置文件!$G$4+$L16*用户配置文件!$H$4+$M16*用户配置文件!$I$4+$N16*用户配置文件!$J$4+$O16*用户配置文件!$K$4+$P16*用户配置文件!$L$4</f>
@@ -7715,7 +7743,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>22</v>
@@ -7739,7 +7767,7 @@
         <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R17">
         <f>$F17-$E17+$G17*用户配置文件!$C$4+$H17*用户配置文件!$D$4+$I17*用户配置文件!$E$4+$J17*用户配置文件!$F$4+$K17*用户配置文件!$G$4+$L17*用户配置文件!$H$4+$M17*用户配置文件!$I$4+$N17*用户配置文件!$J$4+$O17*用户配置文件!$K$4+$P17*用户配置文件!$L$4</f>
@@ -7752,7 +7780,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -7776,7 +7804,7 @@
         <v>0.3</v>
       </c>
       <c r="Q18">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R18">
         <f>$F18-$E18+$G18*用户配置文件!$C$4+$H18*用户配置文件!$D$4+$I18*用户配置文件!$E$4+$J18*用户配置文件!$F$4+$K18*用户配置文件!$G$4+$L18*用户配置文件!$H$4+$M18*用户配置文件!$I$4+$N18*用户配置文件!$J$4+$O18*用户配置文件!$K$4+$P18*用户配置文件!$L$4</f>
@@ -7789,7 +7817,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>23</v>
@@ -7813,7 +7841,7 @@
         <v>5.5</v>
       </c>
       <c r="Q19">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R19">
         <f>$F19-$E19+$G19*用户配置文件!$C$4+$H19*用户配置文件!$D$4+$I19*用户配置文件!$E$4+$J19*用户配置文件!$F$4+$K19*用户配置文件!$G$4+$L19*用户配置文件!$H$4+$M19*用户配置文件!$I$4+$N19*用户配置文件!$J$4+$O19*用户配置文件!$K$4+$P19*用户配置文件!$L$4</f>
@@ -7826,7 +7854,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>23</v>
@@ -7850,7 +7878,7 @@
         <v>5.5</v>
       </c>
       <c r="Q20">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R20">
         <f>$F20-$E20+$G20*用户配置文件!$C$4+$H20*用户配置文件!$D$4+$I20*用户配置文件!$E$4+$J20*用户配置文件!$F$4+$K20*用户配置文件!$G$4+$L20*用户配置文件!$H$4+$M20*用户配置文件!$I$4+$N20*用户配置文件!$J$4+$O20*用户配置文件!$K$4+$P20*用户配置文件!$L$4</f>
@@ -7863,7 +7891,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>23</v>
@@ -7887,7 +7915,7 @@
         <v>0.3</v>
       </c>
       <c r="Q21">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R21">
         <f>$F21-$E21+$G21*用户配置文件!$C$4+$H21*用户配置文件!$D$4+$I21*用户配置文件!$E$4+$J21*用户配置文件!$F$4+$K21*用户配置文件!$G$4+$L21*用户配置文件!$H$4+$M21*用户配置文件!$I$4+$N21*用户配置文件!$J$4+$O21*用户配置文件!$K$4+$P21*用户配置文件!$L$4</f>
@@ -7900,7 +7928,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>23</v>
@@ -7924,7 +7952,7 @@
         <v>7.5</v>
       </c>
       <c r="Q22">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R22">
         <f>$F22-$E22+$G22*用户配置文件!$C$4+$H22*用户配置文件!$D$4+$I22*用户配置文件!$E$4+$J22*用户配置文件!$F$4+$K22*用户配置文件!$G$4+$L22*用户配置文件!$H$4+$M22*用户配置文件!$I$4+$N22*用户配置文件!$J$4+$O22*用户配置文件!$K$4+$P22*用户配置文件!$L$4</f>
@@ -7937,7 +7965,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>24</v>
@@ -7961,7 +7989,7 @@
         <v>0.3</v>
       </c>
       <c r="Q23">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R23">
         <f>$F23-$E23+$G23*用户配置文件!$C$4+$H23*用户配置文件!$D$4+$I23*用户配置文件!$E$4+$J23*用户配置文件!$F$4+$K23*用户配置文件!$G$4+$L23*用户配置文件!$H$4+$M23*用户配置文件!$I$4+$N23*用户配置文件!$J$4+$O23*用户配置文件!$K$4+$P23*用户配置文件!$L$4</f>
@@ -7974,7 +8002,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>24</v>
@@ -7998,7 +8026,7 @@
         <v>3</v>
       </c>
       <c r="Q24">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R24">
         <f>$F24-$E24+$G24*用户配置文件!$C$4+$H24*用户配置文件!$D$4+$I24*用户配置文件!$E$4+$J24*用户配置文件!$F$4+$K24*用户配置文件!$G$4+$L24*用户配置文件!$H$4+$M24*用户配置文件!$I$4+$N24*用户配置文件!$J$4+$O24*用户配置文件!$K$4+$P24*用户配置文件!$L$4</f>
@@ -8011,7 +8039,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>24</v>
@@ -8035,7 +8063,7 @@
         <v>3</v>
       </c>
       <c r="Q25">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R25">
         <f>$F25-$E25+$G25*用户配置文件!$C$4+$H25*用户配置文件!$D$4+$I25*用户配置文件!$E$4+$J25*用户配置文件!$F$4+$K25*用户配置文件!$G$4+$L25*用户配置文件!$H$4+$M25*用户配置文件!$I$4+$N25*用户配置文件!$J$4+$O25*用户配置文件!$K$4+$P25*用户配置文件!$L$4</f>
@@ -8048,7 +8076,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>24</v>
@@ -8072,7 +8100,7 @@
         <v>0.3</v>
       </c>
       <c r="Q26">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R26">
         <f>$F26-$E26+$G26*用户配置文件!$C$4+$H26*用户配置文件!$D$4+$I26*用户配置文件!$E$4+$J26*用户配置文件!$F$4+$K26*用户配置文件!$G$4+$L26*用户配置文件!$H$4+$M26*用户配置文件!$I$4+$N26*用户配置文件!$J$4+$O26*用户配置文件!$K$4+$P26*用户配置文件!$L$4</f>
@@ -8085,7 +8113,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>24</v>
@@ -8109,7 +8137,7 @@
         <v>7.5</v>
       </c>
       <c r="Q27">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R27">
         <f>$F27-$E27+$G27*用户配置文件!$C$4+$H27*用户配置文件!$D$4+$I27*用户配置文件!$E$4+$J27*用户配置文件!$F$4+$K27*用户配置文件!$G$4+$L27*用户配置文件!$H$4+$M27*用户配置文件!$I$4+$N27*用户配置文件!$J$4+$O27*用户配置文件!$K$4+$P27*用户配置文件!$L$4</f>
@@ -8122,7 +8150,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>25</v>
@@ -8146,7 +8174,7 @@
         <v>0.3</v>
       </c>
       <c r="Q28">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R28">
         <f>$F28-$E28+$G28*用户配置文件!$C$4+$H28*用户配置文件!$D$4+$I28*用户配置文件!$E$4+$J28*用户配置文件!$F$4+$K28*用户配置文件!$G$4+$L28*用户配置文件!$H$4+$M28*用户配置文件!$I$4+$N28*用户配置文件!$J$4+$O28*用户配置文件!$K$4+$P28*用户配置文件!$L$4</f>
@@ -8159,7 +8187,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>25</v>
@@ -8183,7 +8211,7 @@
         <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R29">
         <f>$F29-$E29+$G29*用户配置文件!$C$4+$H29*用户配置文件!$D$4+$I29*用户配置文件!$E$4+$J29*用户配置文件!$F$4+$K29*用户配置文件!$G$4+$L29*用户配置文件!$H$4+$M29*用户配置文件!$I$4+$N29*用户配置文件!$J$4+$O29*用户配置文件!$K$4+$P29*用户配置文件!$L$4</f>
@@ -8196,7 +8224,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>25</v>
@@ -8220,7 +8248,7 @@
         <v>5.5</v>
       </c>
       <c r="Q30">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R30">
         <f>$F30-$E30+$G30*用户配置文件!$C$4+$H30*用户配置文件!$D$4+$I30*用户配置文件!$E$4+$J30*用户配置文件!$F$4+$K30*用户配置文件!$G$4+$L30*用户配置文件!$H$4+$M30*用户配置文件!$I$4+$N30*用户配置文件!$J$4+$O30*用户配置文件!$K$4+$P30*用户配置文件!$L$4</f>
@@ -8233,7 +8261,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>25</v>
@@ -8258,7 +8286,7 @@
         <v>0.3</v>
       </c>
       <c r="Q31">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R31">
         <f>$F31-$E31+$G31*用户配置文件!$C$4+$H31*用户配置文件!$D$4+$I31*用户配置文件!$E$4+$J31*用户配置文件!$F$4+$K31*用户配置文件!$G$4+$L31*用户配置文件!$H$4+$M31*用户配置文件!$I$4+$N31*用户配置文件!$J$4+$O31*用户配置文件!$K$4+$P31*用户配置文件!$L$4</f>
@@ -8271,7 +8299,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>25</v>
@@ -8296,7 +8324,7 @@
         <v>7.5</v>
       </c>
       <c r="Q32">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R32">
         <f>$F32-$E32+$G32*用户配置文件!$C$4+$H32*用户配置文件!$D$4+$I32*用户配置文件!$E$4+$J32*用户配置文件!$F$4+$K32*用户配置文件!$G$4+$L32*用户配置文件!$H$4+$M32*用户配置文件!$I$4+$N32*用户配置文件!$J$4+$O32*用户配置文件!$K$4+$P32*用户配置文件!$L$4</f>
@@ -8309,7 +8337,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>26</v>
@@ -8333,7 +8361,7 @@
         <v>0.3</v>
       </c>
       <c r="Q33">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R33">
         <f>$F33-$E33+$G33*用户配置文件!$C$4+$H33*用户配置文件!$D$4+$I33*用户配置文件!$E$4+$J33*用户配置文件!$F$4+$K33*用户配置文件!$G$4+$L33*用户配置文件!$H$4+$M33*用户配置文件!$I$4+$N33*用户配置文件!$J$4+$O33*用户配置文件!$K$4+$P33*用户配置文件!$L$4</f>
@@ -8346,7 +8374,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>26</v>
@@ -8370,7 +8398,7 @@
         <v>3</v>
       </c>
       <c r="Q34">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R34">
         <f>$F34-$E34+$G34*用户配置文件!$C$4+$H34*用户配置文件!$D$4+$I34*用户配置文件!$E$4+$J34*用户配置文件!$F$4+$K34*用户配置文件!$G$4+$L34*用户配置文件!$H$4+$M34*用户配置文件!$I$4+$N34*用户配置文件!$J$4+$O34*用户配置文件!$K$4+$P34*用户配置文件!$L$4</f>
@@ -8383,7 +8411,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>26</v>
@@ -8407,7 +8435,7 @@
         <v>3</v>
       </c>
       <c r="Q35">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R35">
         <f>$F35-$E35+$G35*用户配置文件!$C$4+$H35*用户配置文件!$D$4+$I35*用户配置文件!$E$4+$J35*用户配置文件!$F$4+$K35*用户配置文件!$G$4+$L35*用户配置文件!$H$4+$M35*用户配置文件!$I$4+$N35*用户配置文件!$J$4+$O35*用户配置文件!$K$4+$P35*用户配置文件!$L$4</f>
@@ -8420,7 +8448,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>26</v>
@@ -8444,7 +8472,7 @@
         <v>0.3</v>
       </c>
       <c r="Q36">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R36">
         <f>$F36-$E36+$G36*用户配置文件!$C$4+$H36*用户配置文件!$D$4+$I36*用户配置文件!$E$4+$J36*用户配置文件!$F$4+$K36*用户配置文件!$G$4+$L36*用户配置文件!$H$4+$M36*用户配置文件!$I$4+$N36*用户配置文件!$J$4+$O36*用户配置文件!$K$4+$P36*用户配置文件!$L$4</f>
@@ -8457,7 +8485,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>26</v>
@@ -8481,7 +8509,7 @@
         <v>7.5</v>
       </c>
       <c r="Q37">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R37">
         <f>$F37-$E37+$G37*用户配置文件!$C$4+$H37*用户配置文件!$D$4+$I37*用户配置文件!$E$4+$J37*用户配置文件!$F$4+$K37*用户配置文件!$G$4+$L37*用户配置文件!$H$4+$M37*用户配置文件!$I$4+$N37*用户配置文件!$J$4+$O37*用户配置文件!$K$4+$P37*用户配置文件!$L$4</f>
@@ -8494,7 +8522,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>27</v>
@@ -8518,7 +8546,7 @@
         <v>0.3</v>
       </c>
       <c r="Q38">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R38">
         <f>$F38-$E38+$G38*用户配置文件!$C$4+$H38*用户配置文件!$D$4+$I38*用户配置文件!$E$4+$J38*用户配置文件!$F$4+$K38*用户配置文件!$G$4+$L38*用户配置文件!$H$4+$M38*用户配置文件!$I$4+$N38*用户配置文件!$J$4+$O38*用户配置文件!$K$4+$P38*用户配置文件!$L$4</f>
@@ -8531,7 +8559,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>27</v>
@@ -8555,7 +8583,7 @@
         <v>5.5</v>
       </c>
       <c r="Q39">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R39">
         <f>$F39-$E39+$G39*用户配置文件!$C$4+$H39*用户配置文件!$D$4+$I39*用户配置文件!$E$4+$J39*用户配置文件!$F$4+$K39*用户配置文件!$G$4+$L39*用户配置文件!$H$4+$M39*用户配置文件!$I$4+$N39*用户配置文件!$J$4+$O39*用户配置文件!$K$4+$P39*用户配置文件!$L$4</f>
@@ -8568,7 +8596,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>27</v>
@@ -8592,7 +8620,7 @@
         <v>5.5</v>
       </c>
       <c r="Q40">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R40">
         <f>$F40-$E40+$G40*用户配置文件!$C$4+$H40*用户配置文件!$D$4+$I40*用户配置文件!$E$4+$J40*用户配置文件!$F$4+$K40*用户配置文件!$G$4+$L40*用户配置文件!$H$4+$M40*用户配置文件!$I$4+$N40*用户配置文件!$J$4+$O40*用户配置文件!$K$4+$P40*用户配置文件!$L$4</f>
@@ -8605,7 +8633,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>27</v>
@@ -8630,7 +8658,7 @@
         <v>0.3</v>
       </c>
       <c r="Q41">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R41">
         <f>$F41-$E41+$G41*用户配置文件!$C$4+$H41*用户配置文件!$D$4+$I41*用户配置文件!$E$4+$J41*用户配置文件!$F$4+$K41*用户配置文件!$G$4+$L41*用户配置文件!$H$4+$M41*用户配置文件!$I$4+$N41*用户配置文件!$J$4+$O41*用户配置文件!$K$4+$P41*用户配置文件!$L$4</f>
@@ -8643,7 +8671,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>27</v>
@@ -8668,7 +8696,7 @@
         <v>7.5</v>
       </c>
       <c r="Q42">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="R42">
         <f>$F42-$E42+$G42*用户配置文件!$C$4+$H42*用户配置文件!$D$4+$I42*用户配置文件!$E$4+$J42*用户配置文件!$F$4+$K42*用户配置文件!$G$4+$L42*用户配置文件!$H$4+$M42*用户配置文件!$I$4+$N42*用户配置文件!$J$4+$O42*用户配置文件!$K$4+$P42*用户配置文件!$L$4</f>
@@ -8689,7 +8717,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>40</v>
@@ -8711,7 +8739,7 @@
         <v>0.3</v>
       </c>
       <c r="Q44">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R44">
         <f>$F44-$E44+$G44*用户配置文件!$C$4+$H44*用户配置文件!$D$4+$I44*用户配置文件!$E$4+$J44*用户配置文件!$F$4+$K44*用户配置文件!$G$4+$L44*用户配置文件!$H$4+$M44*用户配置文件!$I$4+$N44*用户配置文件!$J$4+$O44*用户配置文件!$K$4+$P44*用户配置文件!$L$4</f>
@@ -8747,7 +8775,7 @@
         <v>0.3</v>
       </c>
       <c r="Q45">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R45">
         <f>$F45-$E45+$G45*用户配置文件!$C$4+$H45*用户配置文件!$D$4+$I45*用户配置文件!$E$4+$J45*用户配置文件!$F$4+$K45*用户配置文件!$G$4+$L45*用户配置文件!$H$4+$M45*用户配置文件!$I$4+$N45*用户配置文件!$J$4+$O45*用户配置文件!$K$4+$P45*用户配置文件!$L$4</f>
@@ -8782,7 +8810,7 @@
         <v>7.5</v>
       </c>
       <c r="Q46">
-        <v>0.06</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R46">
         <f>$F46-$E46+$G46*用户配置文件!$C$4+$H46*用户配置文件!$D$4+$I46*用户配置文件!$E$4+$J46*用户配置文件!$F$4+$K46*用户配置文件!$G$4+$L46*用户配置文件!$H$4+$M46*用户配置文件!$I$4+$N46*用户配置文件!$J$4+$O46*用户配置文件!$K$4+$P46*用户配置文件!$L$4</f>
@@ -8818,7 +8846,7 @@
         <v>0.3</v>
       </c>
       <c r="Q47">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R47">
         <f>$F47-$E47+$G47*用户配置文件!$C$4+$H47*用户配置文件!$D$4+$I47*用户配置文件!$E$4+$J47*用户配置文件!$F$4+$K47*用户配置文件!$G$4+$L47*用户配置文件!$H$4+$M47*用户配置文件!$I$4+$N47*用户配置文件!$J$4+$O47*用户配置文件!$K$4+$P47*用户配置文件!$L$4</f>
@@ -8847,7 +8875,7 @@
         <v>0.390625</v>
       </c>
       <c r="Q48">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R48">
         <f>$F48-$E48+$G48*用户配置文件!$C$4+$H48*用户配置文件!$D$4+$I48*用户配置文件!$E$4+$J48*用户配置文件!$F$4+$K48*用户配置文件!$G$4+$L48*用户配置文件!$H$4+$M48*用户配置文件!$I$4+$N48*用户配置文件!$J$4+$O48*用户配置文件!$K$4+$P48*用户配置文件!$L$4</f>
@@ -8883,7 +8911,7 @@
         <v>0.3</v>
       </c>
       <c r="Q49">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="R49">
         <f>$F49-$E49+$G49*用户配置文件!$C$4+$H49*用户配置文件!$D$4+$I49*用户配置文件!$E$4+$J49*用户配置文件!$F$4+$K49*用户配置文件!$G$4+$L49*用户配置文件!$H$4+$M49*用户配置文件!$I$4+$N49*用户配置文件!$J$4+$O49*用户配置文件!$K$4+$P49*用户配置文件!$L$4</f>
@@ -8912,7 +8940,7 @@
         <v>0.374311926605505</v>
       </c>
       <c r="Q50">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="R50">
         <f>$F50-$E50+$G50*用户配置文件!$C$4+$H50*用户配置文件!$D$4+$I50*用户配置文件!$E$4+$J50*用户配置文件!$F$4+$K50*用户配置文件!$G$4+$L50*用户配置文件!$H$4+$M50*用户配置文件!$I$4+$N50*用户配置文件!$J$4+$O50*用户配置文件!$K$4+$P50*用户配置文件!$L$4</f>
@@ -8926,7 +8954,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>47</v>
@@ -8945,7 +8973,7 @@
         <v>0.5</v>
       </c>
       <c r="Q51">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R51">
         <f>$F51-$E51+$G51*用户配置文件!$C$4+$H51*用户配置文件!$D$4+$I51*用户配置文件!$E$4+$J51*用户配置文件!$F$4+$K51*用户配置文件!$G$4+$L51*用户配置文件!$H$4+$M51*用户配置文件!$I$4+$N51*用户配置文件!$J$4+$O51*用户配置文件!$K$4+$P51*用户配置文件!$L$4</f>
@@ -8958,7 +8986,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>48</v>
@@ -8990,7 +9018,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>49</v>
@@ -9009,7 +9037,7 @@
         <v>9</v>
       </c>
       <c r="Q53">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R53">
         <f>$F53-$E53+$G53*用户配置文件!$C$4+$H53*用户配置文件!$D$4+$I53*用户配置文件!$E$4+$J53*用户配置文件!$F$4+$K53*用户配置文件!$G$4+$L53*用户配置文件!$H$4+$M53*用户配置文件!$I$4+$N53*用户配置文件!$J$4+$O53*用户配置文件!$K$4+$P53*用户配置文件!$L$4</f>
@@ -9022,7 +9050,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>50</v>
@@ -9116,7 +9144,7 @@
         <v>8.5</v>
       </c>
       <c r="Q56">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="R56">
         <f>$F56-$E56+$G56*用户配置文件!$C$4+$H56*用户配置文件!$D$4+$I56*用户配置文件!$E$4+$J56*用户配置文件!$F$4+$K56*用户配置文件!$G$4+$L56*用户配置文件!$H$4+$M56*用户配置文件!$I$4+$N56*用户配置文件!$J$4+$O56*用户配置文件!$K$4+$P56*用户配置文件!$L$4</f>
@@ -9217,7 +9245,7 @@
         <v>0.3</v>
       </c>
       <c r="Q59">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R59">
         <f>$F59-$E59+$G59*用户配置文件!$C$4+$H59*用户配置文件!$D$4+$I59*用户配置文件!$E$4+$J59*用户配置文件!$F$4+$K59*用户配置文件!$G$4+$L59*用户配置文件!$H$4+$M59*用户配置文件!$I$4+$N59*用户配置文件!$J$4+$O59*用户配置文件!$K$4+$P59*用户配置文件!$L$4</f>
@@ -9246,7 +9274,7 @@
         <v>0.29558998808104886</v>
       </c>
       <c r="Q60">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R60">
         <f>$F60-$E60+$G60*用户配置文件!$C$4+$H60*用户配置文件!$D$4+$I60*用户配置文件!$E$4+$J60*用户配置文件!$F$4+$K60*用户配置文件!$G$4+$L60*用户配置文件!$H$4+$M60*用户配置文件!$I$4+$N60*用户配置文件!$J$4+$O60*用户配置文件!$K$4+$P60*用户配置文件!$L$4</f>
@@ -9260,7 +9288,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>57</v>
@@ -9279,7 +9307,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R61">
         <f>$F61-$E61+$G61*用户配置文件!$C$4+$H61*用户配置文件!$D$4+$I61*用户配置文件!$E$4+$J61*用户配置文件!$F$4+$K61*用户配置文件!$G$4+$L61*用户配置文件!$H$4+$M61*用户配置文件!$I$4+$N61*用户配置文件!$J$4+$O61*用户配置文件!$K$4+$P61*用户配置文件!$L$4</f>
@@ -9292,7 +9320,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>58</v>
@@ -9324,7 +9352,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>59</v>
@@ -9343,7 +9371,7 @@
         <v>11.5</v>
       </c>
       <c r="Q63">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R63">
         <f>$F63-$E63+$G63*用户配置文件!$C$4+$H63*用户配置文件!$D$4+$I63*用户配置文件!$E$4+$J63*用户配置文件!$F$4+$K63*用户配置文件!$G$4+$L63*用户配置文件!$H$4+$M63*用户配置文件!$I$4+$N63*用户配置文件!$J$4+$O63*用户配置文件!$K$4+$P63*用户配置文件!$L$4</f>
@@ -9356,7 +9384,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>60</v>
@@ -9378,7 +9406,7 @@
         <v>1.2</v>
       </c>
       <c r="Q64">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R64">
         <f>$F64-$E64+$G64*用户配置文件!$C$4+$H64*用户配置文件!$D$4+$I64*用户配置文件!$E$4+$J64*用户配置文件!$F$4+$K64*用户配置文件!$G$4+$L64*用户配置文件!$H$4+$M64*用户配置文件!$I$4+$N64*用户配置文件!$J$4+$O64*用户配置文件!$K$4+$P64*用户配置文件!$L$4</f>
@@ -9413,7 +9441,7 @@
         <v>1.2</v>
       </c>
       <c r="Q65">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R65">
         <f>$F65-$E65+$G65*用户配置文件!$C$4+$H65*用户配置文件!$D$4+$I65*用户配置文件!$E$4+$J65*用户配置文件!$F$4+$K65*用户配置文件!$G$4+$L65*用户配置文件!$H$4+$M65*用户配置文件!$I$4+$N65*用户配置文件!$J$4+$O65*用户配置文件!$K$4+$P65*用户配置文件!$L$4</f>
@@ -9448,7 +9476,7 @@
         <v>14</v>
       </c>
       <c r="Q66">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R66">
         <f>$F66-$E66+$G66*用户配置文件!$C$4+$H66*用户配置文件!$D$4+$I66*用户配置文件!$E$4+$J66*用户配置文件!$F$4+$K66*用户配置文件!$G$4+$L66*用户配置文件!$H$4+$M66*用户配置文件!$I$4+$N66*用户配置文件!$J$4+$O66*用户配置文件!$K$4+$P66*用户配置文件!$L$4</f>
@@ -9483,7 +9511,7 @@
         <v>0.3</v>
       </c>
       <c r="Q67">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R67">
         <f>$F67-$E67+$G67*用户配置文件!$C$4+$H67*用户配置文件!$D$4+$I67*用户配置文件!$E$4+$J67*用户配置文件!$F$4+$K67*用户配置文件!$G$4+$L67*用户配置文件!$H$4+$M67*用户配置文件!$I$4+$N67*用户配置文件!$J$4+$O67*用户配置文件!$K$4+$P67*用户配置文件!$L$4</f>
@@ -9512,7 +9540,7 @@
         <v>0.60572687224669608</v>
       </c>
       <c r="Q68">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R68">
         <f>$F68-$E68+$G68*用户配置文件!$C$4+$H68*用户配置文件!$D$4+$I68*用户配置文件!$E$4+$J68*用户配置文件!$F$4+$K68*用户配置文件!$G$4+$L68*用户配置文件!$H$4+$M68*用户配置文件!$I$4+$N68*用户配置文件!$J$4+$O68*用户配置文件!$K$4+$P68*用户配置文件!$L$4</f>
@@ -9549,7 +9577,7 @@
         <v>0.3</v>
       </c>
       <c r="Q69">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R69">
         <f>$F69-$E69+$G69*用户配置文件!$C$4+$H69*用户配置文件!$D$4+$I69*用户配置文件!$E$4+$J69*用户配置文件!$F$4+$K69*用户配置文件!$G$4+$L69*用户配置文件!$H$4+$M69*用户配置文件!$I$4+$N69*用户配置文件!$J$4+$O69*用户配置文件!$K$4+$P69*用户配置文件!$L$4</f>
@@ -9578,7 +9606,7 @@
         <v>0.60560344827586199</v>
       </c>
       <c r="Q70">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R70">
         <f>$F70-$E70+$G70*用户配置文件!$C$4+$H70*用户配置文件!$D$4+$I70*用户配置文件!$E$4+$J70*用户配置文件!$F$4+$K70*用户配置文件!$G$4+$L70*用户配置文件!$H$4+$M70*用户配置文件!$I$4+$N70*用户配置文件!$J$4+$O70*用户配置文件!$K$4+$P70*用户配置文件!$L$4</f>
@@ -9612,7 +9640,7 @@
         <v>1.5</v>
       </c>
       <c r="Q71">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="R71">
         <f>$F71-$E71+$G71*用户配置文件!$C$4+$H71*用户配置文件!$D$4+$I71*用户配置文件!$E$4+$J71*用户配置文件!$F$4+$K71*用户配置文件!$G$4+$L71*用户配置文件!$H$4+$M71*用户配置文件!$I$4+$N71*用户配置文件!$J$4+$O71*用户配置文件!$K$4+$P71*用户配置文件!$L$4</f>
@@ -9676,7 +9704,7 @@
         <v>14</v>
       </c>
       <c r="Q73">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="R73">
         <f>$F73-$E73+$G73*用户配置文件!$C$4+$H73*用户配置文件!$D$4+$I73*用户配置文件!$E$4+$J73*用户配置文件!$F$4+$K73*用户配置文件!$G$4+$L73*用户配置文件!$H$4+$M73*用户配置文件!$I$4+$N73*用户配置文件!$J$4+$O73*用户配置文件!$K$4+$P73*用户配置文件!$L$4</f>
@@ -9689,14 +9717,14 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>73</v>
@@ -9725,7 +9753,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>74</v>
@@ -9754,7 +9782,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>75</v>
@@ -9786,7 +9814,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>76</v>
@@ -9815,7 +9843,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>77</v>
@@ -9844,7 +9872,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>78</v>
@@ -9876,7 +9904,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>79</v>
@@ -9905,7 +9933,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>80</v>
@@ -9934,7 +9962,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>81</v>
@@ -9966,7 +9994,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>82</v>
@@ -9995,7 +10023,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>83</v>
@@ -10024,7 +10052,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>84</v>
@@ -10056,7 +10084,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>85</v>
@@ -10085,7 +10113,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>86</v>
@@ -10114,7 +10142,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>87</v>
@@ -10146,7 +10174,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>88</v>
@@ -10175,7 +10203,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>89</v>
@@ -10204,7 +10232,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>90</v>
@@ -10385,7 +10413,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>95</v>
@@ -10603,7 +10631,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B104" s="38" t="s">
         <v>101</v>
@@ -10856,7 +10884,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B111" s="38" t="s">
         <v>108</v>
@@ -11075,7 +11103,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B117" s="38" t="s">
         <v>114</v>
@@ -11327,7 +11355,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B124" s="38" t="s">
         <v>121</v>
@@ -11544,7 +11572,7 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A130" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B130" s="38" t="s">
         <v>127</v>
@@ -11680,7 +11708,7 @@
         <v>8.5</v>
       </c>
       <c r="Q134">
-        <v>8.3299999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="R134">
         <f>$F134-$E134+$G134*用户配置文件!$C$4+$H134*用户配置文件!$D$4+$I134*用户配置文件!$E$4+$J134*用户配置文件!$F$4+$K134*用户配置文件!$G$4+$L134*用户配置文件!$H$4+$M134*用户配置文件!$I$4+$N134*用户配置文件!$J$4+$O134*用户配置文件!$K$4+$P134*用户配置文件!$L$4</f>
@@ -11718,7 +11746,7 @@
         <v>0.34</v>
       </c>
       <c r="Q135">
-        <v>8.3299999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R135">
         <f>$F135-$E135+$G135*用户配置文件!$C$4+$H135*用户配置文件!$D$4+$I135*用户配置文件!$E$4+$J135*用户配置文件!$F$4+$K135*用户配置文件!$G$4+$L135*用户配置文件!$H$4+$M135*用户配置文件!$I$4+$N135*用户配置文件!$J$4+$O135*用户配置文件!$K$4+$P135*用户配置文件!$L$4</f>
@@ -11750,7 +11778,7 @@
         <v>0.34</v>
       </c>
       <c r="Q136">
-        <v>8.3299999999999999E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="R136">
         <f>$F136-$E136+$G136*用户配置文件!$C$4+$H136*用户配置文件!$D$4+$I136*用户配置文件!$E$4+$J136*用户配置文件!$F$4+$K136*用户配置文件!$G$4+$L136*用户配置文件!$H$4+$M136*用户配置文件!$I$4+$N136*用户配置文件!$J$4+$O136*用户配置文件!$K$4+$P136*用户配置文件!$L$4</f>
@@ -11765,7 +11793,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A137" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>31</v>
@@ -11786,7 +11814,7 @@
         <v>9</v>
       </c>
       <c r="Q137">
-        <v>8.3299999999999999E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="R137">
         <f>$F137-$E137+$G137*用户配置文件!$C$4+$H137*用户配置文件!$D$4+$I137*用户配置文件!$E$4+$J137*用户配置文件!$F$4+$K137*用户配置文件!$G$4+$L137*用户配置文件!$H$4+$M137*用户配置文件!$I$4+$N137*用户配置文件!$J$4+$O137*用户配置文件!$K$4+$P137*用户配置文件!$L$4</f>
@@ -11821,7 +11849,7 @@
         <v>11</v>
       </c>
       <c r="Q138">
-        <v>8.3299999999999999E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="R138">
         <f>$F138-$E138+$G138*用户配置文件!$C$4+$H138*用户配置文件!$D$4+$I138*用户配置文件!$E$4+$J138*用户配置文件!$F$4+$K138*用户配置文件!$G$4+$L138*用户配置文件!$H$4+$M138*用户配置文件!$I$4+$N138*用户配置文件!$J$4+$O138*用户配置文件!$K$4+$P138*用户配置文件!$L$4</f>
@@ -11859,7 +11887,7 @@
         <v>0.31</v>
       </c>
       <c r="Q139">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="R139">
         <f>$F139-$E139+$G139*用户配置文件!$C$4+$H139*用户配置文件!$D$4+$I139*用户配置文件!$E$4+$J139*用户配置文件!$F$4+$K139*用户配置文件!$G$4+$L139*用户配置文件!$H$4+$M139*用户配置文件!$I$4+$N139*用户配置文件!$J$4+$O139*用户配置文件!$K$4+$P139*用户配置文件!$L$4</f>
@@ -11906,7 +11934,7 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A141" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>35</v>
@@ -11962,7 +11990,7 @@
         <v>14</v>
       </c>
       <c r="Q142">
-        <v>8.3299999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R142">
         <f>$F142-$E142+$G142*用户配置文件!$C$4+$H142*用户配置文件!$D$4+$I142*用户配置文件!$E$4+$J142*用户配置文件!$F$4+$K142*用户配置文件!$G$4+$L142*用户配置文件!$H$4+$M142*用户配置文件!$I$4+$N142*用户配置文件!$J$4+$O142*用户配置文件!$K$4+$P142*用户配置文件!$L$4</f>
@@ -12000,7 +12028,7 @@
         <v>0.6</v>
       </c>
       <c r="Q143">
-        <v>8.3299999999999999E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="R143">
         <f>$F143-$E143+$G143*用户配置文件!$C$4+$H143*用户配置文件!$D$4+$I143*用户配置文件!$E$4+$J143*用户配置文件!$F$4+$K143*用户配置文件!$G$4+$L143*用户配置文件!$H$4+$M143*用户配置文件!$I$4+$N143*用户配置文件!$J$4+$O143*用户配置文件!$K$4+$P143*用户配置文件!$L$4</f>
@@ -12032,7 +12060,7 @@
         <v>0.6</v>
       </c>
       <c r="Q144">
-        <v>8.3299999999999999E-2</v>
+        <v>0.111</v>
       </c>
       <c r="R144">
         <f>$F144-$E144+$G144*用户配置文件!$C$4+$H144*用户配置文件!$D$4+$I144*用户配置文件!$E$4+$J144*用户配置文件!$F$4+$K144*用户配置文件!$G$4+$L144*用户配置文件!$H$4+$M144*用户配置文件!$I$4+$N144*用户配置文件!$J$4+$O144*用户配置文件!$K$4+$P144*用户配置文件!$L$4</f>
@@ -12068,7 +12096,7 @@
         <v>14</v>
       </c>
       <c r="Q145">
-        <v>8.3299999999999999E-2</v>
+        <v>0.111</v>
       </c>
       <c r="R145">
         <f>$F145-$E145+$G145*用户配置文件!$C$4+$H145*用户配置文件!$D$4+$I145*用户配置文件!$E$4+$J145*用户配置文件!$F$4+$K145*用户配置文件!$G$4+$L145*用户配置文件!$H$4+$M145*用户配置文件!$I$4+$N145*用户配置文件!$J$4+$O145*用户配置文件!$K$4+$P145*用户配置文件!$L$4</f>

--- a/Alas自定义过滤器辅助表先行版.xlsx
+++ b/Alas自定义过滤器辅助表先行版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AzurLaneCommissionSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alas\Dev\AzurLaneCommissionSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A7648-CD54-41A1-AC4F-12CB58CA73AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBBD57-BCA1-4C0B-A6AC-C1800CE2ADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="252">
   <si>
     <t>名称</t>
   </si>
@@ -903,6 +903,14 @@
   </si>
   <si>
     <t>v 0.1.1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>v 0.1.2:</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了不正确的配置参考值</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2048,16 +2056,16 @@
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2503,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADAA8C5-079F-4EF8-967A-91D6FF59CA51}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2628,6 +2636,16 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2666,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A20" sqref="A20:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3115,8 +3133,8 @@
         <v>1</v>
       </c>
       <c r="C22" s="32">
-        <f>4000/374.19</f>
-        <v>10.689756540794784</v>
+        <f>22.5/2.9</f>
+        <v>7.7586206896551726</v>
       </c>
       <c r="D22" s="32">
         <f>4000/52674.79</f>
@@ -7171,15 +7189,15 @@
         <f t="shared" ref="S3:S42" si="0">R3/C3</f>
         <v>73.586525759577285</v>
       </c>
-      <c r="U3" s="80" t="s">
+      <c r="U3" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
     </row>
     <row r="4" spans="1:27" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="46" t="s">
@@ -7217,13 +7235,13 @@
         <f t="shared" si="0"/>
         <v>153.17052575957729</v>
       </c>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="46" t="s">
@@ -7261,13 +7279,13 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="46" t="s">
@@ -7305,13 +7323,13 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="46" t="s">
@@ -7349,13 +7367,13 @@
         <f t="shared" si="0"/>
         <v>73.586525759577285</v>
       </c>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="46" t="s">
@@ -7393,13 +7411,13 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="46" t="s">
@@ -7437,13 +7455,13 @@
         <f t="shared" si="0"/>
         <v>116.20877675033026</v>
       </c>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="46" t="s">
@@ -7518,15 +7536,15 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U11" s="78" t="s">
+      <c r="U11" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
@@ -7564,13 +7582,13 @@
         <f t="shared" si="0"/>
         <v>76.416776750330257</v>
       </c>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
@@ -7608,13 +7626,13 @@
         <f t="shared" si="0"/>
         <v>84.907529722589175</v>
       </c>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
@@ -7652,13 +7670,13 @@
         <f t="shared" si="0"/>
         <v>164.49152972258918</v>
       </c>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
@@ -7696,13 +7714,13 @@
         <f t="shared" si="0"/>
         <v>84.907529722589175</v>
       </c>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="46" t="s">
